--- a/T_OpFlix-Documentacao/T_Diagrama_Fisico_Joao_OpFlix.xlsx
+++ b/T_OpFlix-Documentacao/T_Diagrama_Fisico_Joao_OpFlix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44634488833\Documents\2s2019-sprint-1-bd\T_OpFlix-Documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E9B073-2B86-4FE7-B0D6-FF6B5F4C6437}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E40E19-DB99-407F-B881-E923F86EBC49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="5955" xr2:uid="{1EF9B934-B52B-43B3-98D2-879F5BC56AF3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="48">
   <si>
     <t>Tipo</t>
   </si>
@@ -315,7 +315,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -351,49 +351,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -421,15 +384,6 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -442,6 +396,10 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -771,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7941976-A49D-4277-86E3-704874CA254F}">
-  <dimension ref="C6:J28"/>
+  <dimension ref="C6:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,20 +745,21 @@
     <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="F6" s="23" t="s">
+      <c r="D6" s="19"/>
+      <c r="F6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="23"/>
+      <c r="G6" s="20"/>
       <c r="I6" s="18" t="s">
         <v>45</v>
       </c>
@@ -917,17 +876,17 @@
       </c>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="F15" s="25" t="s">
+      <c r="D15" s="21"/>
+      <c r="F15" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C16" s="5" t="s">
@@ -952,7 +911,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C17" s="6">
         <v>1</v>
       </c>
@@ -975,7 +934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C18" s="6">
         <v>2</v>
       </c>
@@ -998,7 +957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C19" s="6">
         <v>3</v>
       </c>
@@ -1021,7 +980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C20" s="6">
         <v>4</v>
       </c>
@@ -1044,19 +1003,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C23" s="19" t="s">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C23" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="21"/>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C24" s="13" t="s">
         <v>13</v>
       </c>
@@ -1072,17 +1032,20 @@
       <c r="G24" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="J24" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="J24" s="13" t="s">
+      <c r="K24" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C25" s="7">
         <v>1</v>
       </c>
@@ -1099,16 +1062,19 @@
         <v>2</v>
       </c>
       <c r="H25" s="7">
+        <v>1</v>
+      </c>
+      <c r="I25" s="7">
         <v>4</v>
       </c>
-      <c r="I25" s="14">
+      <c r="J25" s="14">
         <v>43664</v>
       </c>
-      <c r="J25" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K25" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C26" s="7">
         <v>2</v>
       </c>
@@ -1125,16 +1091,19 @@
         <v>1</v>
       </c>
       <c r="H26" s="7">
-        <v>1</v>
-      </c>
-      <c r="I26" s="14">
+        <v>2</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1</v>
+      </c>
+      <c r="J26" s="14">
         <v>43665</v>
       </c>
-      <c r="J26" s="7">
+      <c r="K26" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C27" s="7">
         <v>3</v>
       </c>
@@ -1151,16 +1120,19 @@
         <v>3</v>
       </c>
       <c r="H27" s="7">
+        <v>2</v>
+      </c>
+      <c r="I27" s="7">
         <v>3</v>
       </c>
-      <c r="I27" s="14">
+      <c r="J27" s="14">
         <v>42855</v>
       </c>
-      <c r="J27" s="7">
+      <c r="K27" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C28" s="7">
         <v>4</v>
       </c>
@@ -1177,23 +1149,26 @@
         <v>4</v>
       </c>
       <c r="H28" s="7">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7">
         <v>4</v>
       </c>
-      <c r="I28" s="14">
+      <c r="J28" s="14">
         <v>43636</v>
       </c>
-      <c r="J28" s="7">
+      <c r="K28" s="7">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="C23:J23"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="F15:J15"/>
+    <mergeCell ref="C23:K23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H17" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
